--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -1,325 +1,873 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\2021\2016180022_2021\NGP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF8796-0855-4DAD-9211-9B44641E1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.97.45139"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="450" windowWidth="21600" windowHeight="14130" xr2:uid="{AA991463-2B6E-4F0B-B696-F494C5A69390}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문서 검수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대기실 서버구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버 구현 변경점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스레드 함수 구조 변경, recv,update,send 3단의 스레드 함수를 1p recv, 2p recv, update &amp; send 함수로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그에 따른 구조 변경 중, IP 주소를 받아서 저장하는 기능 폐기(필요시 부활)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정표 - 서버(2016180022 박찬얼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버 자체 기능1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recvCommand()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>헤더 파일 따로 작성해서 분리.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>클라 구현 변경점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정표 - 클라(2016182034 임종찬)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문서 검수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ver.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 게임제작</t>
+  </si>
+  <si>
+    <t>게임에 리소스 추가</t>
+  </si>
+  <si>
+    <t>게임 클래스 분리 및 네트워크 밑작업</t>
+  </si>
+  <si>
+    <t>게임 클래스 분리</t>
+  </si>
+  <si>
+    <t>네트워크 send(),recv()</t>
+  </si>
+  <si>
+    <t>21.11.14</t>
+  </si>
+  <si>
+    <t>기본적으로 제공하는 틀에서 리소스를 이용한 게임으로 그리기 함수 업데이트</t>
+  </si>
+  <si>
+    <t>21.11.15</t>
+  </si>
+  <si>
+    <t>게임에 사용되는 클래스를 파일 단위로 분리 서버에서도 가져다 쓸수</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>게임에 사용되는 클래스를 파일 단위로 분리 서버에서도 가져다 쓸 수 있도록 함</t>
+  </si>
+  <si>
+    <t>21.11.20</t>
+  </si>
+  <si>
+    <t>헤더파일 오류수정</t>
+  </si>
+  <si>
+    <t>네트워크관련 함수들이 헤더파일 오류가 있어 수정 서버와의 통신 검증필요</t>
+  </si>
+  <si>
+    <t>기본적으로 제공하는 틀에서 리소스를 이용한 게임으로 그리기 함수 업데이트 더블더퍼링 이슈 발견</t>
+  </si>
+  <si>
+    <t>더블버퍼링 이슈 해결, 게임에 사용되는 클래스를 파일 단위로 분리 서버에서도 가져다 쓸 수 있도록 함</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -327,16 +875,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -360,9 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -378,9 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,20 +947,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -718,26 +1304,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D48F9E-BAF3-4972-B7DA-1FF78A63B9BE}">
-  <dimension ref="B2:Y36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A19" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:25">
+      <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="4" spans="2:25" ht="17.250000">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" ht="17.250000">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -799,12 +1385,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="6"/>
@@ -829,11 +1415,11 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:25">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
@@ -859,7 +1445,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -870,7 +1456,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="8"/>
@@ -889,7 +1475,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -900,7 +1486,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
@@ -919,7 +1505,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -930,9 +1516,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -947,82 +1533,82 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="15"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="11" spans="2:25" ht="17.250000">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="2:25">
+      <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:25">
+      <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:25">
+      <c r="B17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>1.2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="25" spans="2:25" ht="17.250000">
+      <c r="B25" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" ht="17.250000">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1636,9 @@
       <c r="L26" s="4">
         <v>15</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <v>16</v>
+      </c>
       <c r="N26" s="3">
         <v>20</v>
       </c>
@@ -1084,22 +1672,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25">
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -1114,18 +1702,24 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+    <row r="28" spans="2:25">
+      <c r="B28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -1140,18 +1734,22 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+    <row r="29" spans="2:25">
+      <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="22"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1166,18 +1764,22 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+    <row r="30" spans="2:25">
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -1192,19 +1794,23 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+    <row r="31" spans="2:25">
+      <c r="B31" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="8"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -1218,8 +1824,10 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+    <row r="32" spans="2:25">
+      <c r="B32" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8"/>
@@ -1227,11 +1835,13 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -1244,47 +1854,87 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="15"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="33" spans="2:25" ht="17.250000">
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="36" spans="2:25">
+      <c r="B36" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25">
+      <c r="B37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="0">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25">
+      <c r="B38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25">
+      <c r="B39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="0">
+        <v>1.2</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2102\NGP\TermProject\AirHockey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20C228-B797-46F3-9D2D-522268B38AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.97.45139"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="15630" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -122,107 +117,182 @@
   </si>
   <si>
     <t>21.11.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recvCommand 함수 기능을 getClient 스레드 함수 내부로 이전(동일 기능 처리 효율 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공의 위치만 계산하는 newPosition 함수를 가속도까지 계산하는 updateBall 함수로 변경(동일 기능 처리 효율 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BALLSIZE 30으로 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>circuitCollide 함수에 int 형 collideType 인자 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X,Y_SIDE_COLLIDE 변수 각각 11, 22로 정의(변경 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>checkMoveBall 함수 오류 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updateBall()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>circuitCollide()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.23</t>
+  </si>
+  <si>
+    <t>네트워크 서버와 연결 시도()</t>
+  </si>
+  <si>
+    <t>네트워크 서버와 연결 시도(연결은 되었음), 플레이어 정보 send,recv에 대하여 코드 변경, ball클래스 코드를 네트워크서비스로 변경</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599960"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -232,14 +302,199 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -254,7 +509,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -266,90 +520,132 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -358,67 +654,239 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -475,46 +943,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -814,26 +1306,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:25">
+      <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:25">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="17.250000">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -895,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -925,18 +1417,18 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -955,7 +1447,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1477,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -997,10 +1489,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1015,7 +1507,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1045,11 +1537,11 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="2:25">
+      <c r="B11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1075,8 +1567,8 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="2:25">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="10"/>
@@ -1105,7 +1597,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -1131,7 +1623,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="17.250000">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
@@ -1141,8 +1633,8 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -1157,126 +1649,122 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:25">
+      <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="2:25">
+      <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:25">
+      <c r="B19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:25">
+      <c r="B20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>1.2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="2:25">
+      <c r="B21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>1.3</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="2:25">
+      <c r="B22" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>1.4</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="2:25">
+      <c r="B23" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>1.4</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:25">
+      <c r="B24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>1.5</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:25">
+      <c r="B25" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1.5</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="2:25">
+      <c r="B26" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1.5</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="31" spans="2:25">
+      <c r="B31" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" ht="17.250000">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25">
       <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
@@ -1370,18 +1858,18 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25">
       <c r="B34" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="21"/>
       <c r="J34" s="16" t="s">
         <v>11</v>
@@ -1402,7 +1890,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25">
       <c r="B35" s="11" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1920,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25">
       <c r="B36" s="11" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1950,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25">
       <c r="B37" s="11" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1980,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25">
       <c r="B38" s="11" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +2010,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" ht="17.250000">
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12"/>
@@ -1532,8 +2020,8 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -1548,61 +2036,72 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="42" spans="2:25">
+      <c r="B42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="43" spans="2:25">
+      <c r="B43" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="44" spans="2:25">
+      <c r="B44" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="45" spans="2:25">
+      <c r="B45" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>1.2</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25">
+      <c r="B46" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2102\NGP\TermProject\AirHockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20C228-B797-46F3-9D2D-522268B38AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13921A5E-AD6E-4453-9362-7322A274E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="15630" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -162,6 +162,98 @@
   </si>
   <si>
     <t>circuitCollide()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더에 맞춘 데이터별 구조체 별도 추가, 해당 구조체를 넘기는 방식으로 통신 방식 변경 (통신 효율 고려)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 클라이언트와 통신하는 방식 테스트(check-net 브랜치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 통신하는 방식 테스트(check-net 브랜치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 자료형, 통신 방식 클라이언트와 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 상시 송신 오류 해결(데이터 사이즈 통일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 리포트 확인을 위해 allocconsole 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 자료형, 통신 방식 서버와 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recv함수와 send함수 스레드로 분리, 스레드로 분리하면서 서버에 connect하는 방식 소폭 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 함수 구조 서버와 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 상시 송,수신 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check-net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*서버 작업자 임의 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 상시 송신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 상시 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 - 클라 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 상시 업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +304,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -405,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,26 +577,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -815,25 +938,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y45"/>
+  <dimension ref="B2:AE60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y4" s="24"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,30 +996,42 @@
         <v>22</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="3">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2">
+        <v>26</v>
+      </c>
+      <c r="U5" s="3">
         <v>27</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>28</v>
       </c>
-      <c r="T5" s="4">
+      <c r="W5" s="4">
         <v>29</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="3">
+      <c r="X5" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3">
         <v>4</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AC5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="4">
+      <c r="AD5" s="4">
         <v>6</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AE5" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -915,28 +1051,34 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -953,9 +1095,15 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="10"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="10"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -983,9 +1131,15 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="10"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -997,10 +1151,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1013,9 +1167,15 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="10"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1043,13 +1203,19 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="10"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1073,10 +1239,16 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="10"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="10"/>
@@ -1095,18 +1267,26 @@
       <c r="P12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="10"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="8"/>
@@ -1120,486 +1300,890 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="10"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="10"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="10"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="10"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="10"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
         <v>1.2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="D25" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
         <v>1.3</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="F25" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
+      <c r="D26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
         <v>1.4</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="F26" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
+      <c r="D27" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27">
         <v>1.4</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="F27" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24">
+      <c r="D28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="F28" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29">
         <v>1.5</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="F29" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D26">
+      <c r="D30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30">
         <v>1.5</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="F30" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>2.1</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3">
+      <c r="E41" s="2"/>
+      <c r="F41" s="3">
         <v>6</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G41" s="1">
         <v>7</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H41" s="4">
         <v>8</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3">
+      <c r="I41" s="2"/>
+      <c r="J41" s="3">
         <v>13</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K41" s="1">
         <v>14</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L41" s="4">
         <v>15</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M41" s="2">
         <v>16</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N41" s="3">
         <v>20</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O41" s="1">
         <v>21</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P41" s="4">
         <v>22</v>
       </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="3">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="3">
         <v>27</v>
       </c>
-      <c r="S32" s="1">
+      <c r="V41" s="1">
         <v>28</v>
       </c>
-      <c r="T32" s="4">
+      <c r="W41" s="4">
         <v>29</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="3">
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="3">
         <v>4</v>
       </c>
-      <c r="W32" s="1">
+      <c r="AC41" s="1">
         <v>5</v>
       </c>
-      <c r="X32" s="4">
+      <c r="AD41" s="4">
         <v>6</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="AE41" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="16" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="25" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="16" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="10"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="10"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="10"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
+      <c r="L44" s="21"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="10"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="10"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="10"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="10"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="10"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="16" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="10"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="14"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="10"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="14"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D51" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F51" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="G51" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D52" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="D44">
+      <c r="D53" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>28</v>
       </c>
-      <c r="D45">
+      <c r="D54" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54">
         <v>1.2</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F54" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F43:H43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2102\NGP\TermProject\AirHockey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\2021\AirHockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13921A5E-AD6E-4453-9362-7322A274E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743FD57-C072-49D0-A639-71CB6C6ECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>서버 상시 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모트 상시 통신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE60"/>
+  <dimension ref="B2:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1023,9 @@
         <v>30</v>
       </c>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="2">
+        <v>2</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="3">
         <v>4</v>
@@ -1074,11 +1083,11 @@
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1151,10 +1160,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1212,10 +1221,10 @@
       <c r="AE10" s="10"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1434,7 +1443,9 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+      <c r="B17" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="8"/>
@@ -1458,7 +1469,9 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -1466,63 +1479,81 @@
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="10"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="14"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.3">
@@ -1532,53 +1563,53 @@
       <c r="D23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E23">
-        <v>1.1000000000000001</v>
+      <c r="E23" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E24">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
-        <v>34</v>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E25">
-        <v>1.3</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>35</v>
+        <v>1.2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E26">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.3">
@@ -1592,21 +1623,21 @@
         <v>1.4</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.3">
@@ -1620,7 +1651,7 @@
         <v>1.5</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.3">
@@ -1634,35 +1665,35 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>1.5</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E32">
-        <v>2.1</v>
+      <c r="E32" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.3">
@@ -1673,10 +1704,10 @@
         <v>60</v>
       </c>
       <c r="E33">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.3">
@@ -1687,196 +1718,176 @@
         <v>60</v>
       </c>
       <c r="E34">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="24">
         <v>2.4</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3">
+      <c r="E42" s="2"/>
+      <c r="F42" s="3">
         <v>6</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G42" s="1">
         <v>7</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>8</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3">
+      <c r="I42" s="2"/>
+      <c r="J42" s="3">
         <v>13</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K42" s="1">
         <v>14</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L42" s="4">
         <v>15</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M42" s="2">
         <v>16</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <v>20</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O42" s="1">
         <v>21</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P42" s="4">
         <v>22</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="3">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2">
+        <v>2</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="3">
         <v>27</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V42" s="1">
         <v>28</v>
       </c>
-      <c r="W41" s="4">
+      <c r="W42" s="4">
         <v>29</v>
       </c>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="3">
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="3">
         <v>4</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AC42" s="1">
         <v>5</v>
       </c>
-      <c r="AD41" s="4">
+      <c r="AD42" s="4">
         <v>6</v>
       </c>
-      <c r="AE41" s="4">
+      <c r="AE42" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="16" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="7"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="10"/>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="F44" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -1900,7 +1911,7 @@
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="20"/>
@@ -1910,10 +1921,10 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16" t="s">
+      <c r="K45" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="L45" s="21"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="20"/>
@@ -1947,10 +1958,10 @@
       <c r="I46" s="21"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="16" t="s">
+      <c r="L46" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -1972,22 +1983,22 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="16" t="s">
+      <c r="M47" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -2007,143 +2018,185 @@
       <c r="AE47" s="10"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="14"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="B48" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="10"/>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B49" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="10"/>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="14"/>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D53" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>19</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F53" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G53" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>26</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>28</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56">
         <v>1.2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="28" t="s">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="28">
-        <v>2.1</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="28">
-        <v>2.2000000000000002</v>
+      <c r="E57" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>47</v>
       </c>
@@ -2152,13 +2205,13 @@
         <v>60</v>
       </c>
       <c r="E58" s="28">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
         <v>47</v>
       </c>
@@ -2167,23 +2220,53 @@
         <v>60</v>
       </c>
       <c r="E59" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B61" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="28">
         <v>2.4</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F61" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F44:H44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\2021\AirHockey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2102\NGP\TermProject\AirHockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743FD57-C072-49D0-A639-71CB6C6ECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABD57D-3675-47FF-8FB0-B472D4B5024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -258,6 +258,26 @@
   </si>
   <si>
     <t>리모트 상시 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi-client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티클라이언트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 함수 구조 재변경(클라당 스레드2개), 새 구조에 맞춘 이벤트 처리 방식 소폭 변경, 소켓 포인터 구조체 폐기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,11 +1106,11 @@
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1160,10 +1183,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1221,10 +1244,10 @@
       <c r="AE10" s="10"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1479,7 +1502,9 @@
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="8"/>
@@ -1505,9 +1530,15 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
+      <c r="AB18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="AE18" s="10"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.3">
@@ -1520,8 +1551,8 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -1753,10 +1784,18 @@
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
@@ -1878,11 +1917,11 @@
       <c r="C44" s="18"/>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="21"/>
       <c r="J44" s="16" t="s">
         <v>11</v>
@@ -2099,8 +2138,8 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>

--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\2021\AirHockey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743FD57-C072-49D0-A639-71CB6C6ECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.97.45139"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -122,210 +124,274 @@
   </si>
   <si>
     <t>21.11.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recvCommand 함수 기능을 getClient 스레드 함수 내부로 이전(동일 기능 처리 효율 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공의 위치만 계산하는 newPosition 함수를 가속도까지 계산하는 updateBall 함수로 변경(동일 기능 처리 효율 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BALLSIZE 30으로 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>circuitCollide 함수에 int 형 collideType 인자 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X,Y_SIDE_COLLIDE 변수 각각 11, 22로 정의(변경 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>checkMoveBall 함수 오류 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updateBall()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>circuitCollide()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>헤더에 맞춘 데이터별 구조체 별도 추가, 해당 구조체를 넘기는 방식으로 통신 방식 변경 (통신 효율 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단일 클라이언트와 통신하는 방식 테스트(check-net 브랜치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버와 통신하는 방식 테스트(check-net 브랜치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일부 자료형, 통신 방식 클라이언트와 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 상시 송신 오류 해결(데이터 사이즈 통일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 리포트 확인을 위해 allocconsole 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일부 자료형, 통신 방식 서버와 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recv함수와 send함수 스레드로 분리, 스레드로 분리하면서 서버에 connect하는 방식 소폭 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스레드 함수 구조 서버와 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 상시 송,수신 구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>브랜치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>check-net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*서버 작업자 임의 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 상시 송신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 상시 수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21.11.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버 - 클라 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버 상시 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리모트 상시 통신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.12.07</t>
+  </si>
+  <si>
+    <t>게임에 점수 이미지 추가 및 테이블 이미지 변경</t>
+  </si>
+  <si>
+    <t>21.11.23</t>
+  </si>
+  <si>
+    <t>네트워크 관련 send, recv함수 수정 커맨드를 바꿔가면서 동작하도록 변경</t>
+  </si>
+  <si>
+    <t>게임 리소스 수정</t>
+  </si>
+  <si>
+    <t>게임 클라이언트 수정</t>
+  </si>
+  <si>
+    <t>21.12.2</t>
+  </si>
+  <si>
+    <t>멀티 플레이시에 플레이어들의 위치반전으로 같은 환경에서 게임화면이 이루어지도록 함수 적용</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="5" tint="-0.249980"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599960"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -335,14 +401,199 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -357,7 +608,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -370,7 +620,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -381,7 +630,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -394,7 +642,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -405,7 +652,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -414,7 +660,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -425,7 +670,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -434,7 +678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -443,7 +686,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -454,7 +696,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -463,7 +704,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -474,54 +714,278 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -578,73 +1042,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -944,27 +1417,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView topLeftCell="A52" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:31">
+      <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:31">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="24"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:31" ht="17.250000">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,13 +1512,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1060,34 +1532,34 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="7"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1112,7 +1584,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1620,7 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="10"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1160,10 +1632,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1184,7 +1656,7 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="10"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1220,11 +1692,11 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="10"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:31">
+      <c r="B11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1256,8 +1728,8 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="2:31">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="10"/>
@@ -1292,8 +1764,8 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="10"/>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="2:31">
+      <c r="B13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="10"/>
@@ -1312,10 +1784,10 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="U13" s="8"/>
@@ -1330,8 +1802,8 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="10"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="2:31">
+      <c r="B14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="10"/>
@@ -1351,10 +1823,10 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="8"/>
@@ -1368,8 +1840,8 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="10"/>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="2:31">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="10"/>
@@ -1391,10 +1863,10 @@
       <c r="S15" s="8"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="23" t="s">
+      <c r="W15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="X15" s="15"/>
@@ -1406,8 +1878,8 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="10"/>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:31">
+      <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="10"/>
@@ -1431,7 +1903,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
-      <c r="X16" s="26" t="s">
+      <c r="X16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="Y16" s="15"/>
@@ -1442,8 +1914,8 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="10"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="2:31">
+      <c r="B17" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="10"/>
@@ -1469,7 +1941,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="33" t="s">
+      <c r="Z17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AA17" s="8"/>
@@ -1478,8 +1950,8 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="10"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+    <row r="18" spans="2:31">
+      <c r="B18" s="11"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="8"/>
@@ -1510,7 +1982,7 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="10"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31" ht="17.250000">
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
@@ -1520,8 +1992,8 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -1542,228 +2014,222 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="14"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:31">
+      <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="2:31">
+      <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="2:31">
+      <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:31">
+      <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>1.2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:31">
+      <c r="B26" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>1.3</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:31">
+      <c r="B27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>1.4</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="2:31">
+      <c r="B28" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>1.4</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+    <row r="29" spans="2:31">
+      <c r="B29" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>1.5</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="2:31">
+      <c r="B30" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>1.5</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+    <row r="31" spans="2:31">
+      <c r="B31" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>1.5</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="2:31">
+      <c r="B32" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="2:31">
+      <c r="B33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>2.1</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="2:31">
+      <c r="B34" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="0">
+        <v>2.2</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+    <row r="35" spans="2:31">
+      <c r="B35" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E35">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="0">
+        <v>2.3</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="2:31">
+      <c r="B36" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="0">
         <v>2.4</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="41" spans="2:31">
+      <c r="B41" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:31" ht="17.250000">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +2269,9 @@
       <c r="P42" s="4">
         <v>22</v>
       </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" s="2">
+        <v>23</v>
+      </c>
       <c r="R42" s="2">
         <v>2</v>
       </c>
@@ -1820,7 +2288,9 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+      <c r="Z42" s="2">
+        <v>2</v>
+      </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="3">
         <v>4</v>
@@ -1835,13 +2305,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:31">
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -1855,34 +2325,34 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="7"/>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:31">
       <c r="B44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="21"/>
       <c r="J44" s="16" t="s">
         <v>11</v>
@@ -1909,7 +2379,7 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="10"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:31">
       <c r="B45" s="11" t="s">
         <v>23</v>
       </c>
@@ -1945,7 +2415,7 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="10"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:31">
       <c r="B46" s="11" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +2451,7 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="10"/>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:31">
       <c r="B47" s="11" t="s">
         <v>25</v>
       </c>
@@ -2017,7 +2487,7 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="10"/>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:31">
       <c r="B48" s="11" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2507,9 @@
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="Q48" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -2053,8 +2525,8 @@
       <c r="AD48" s="8"/>
       <c r="AE48" s="10"/>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
+    <row r="49" spans="2:31">
+      <c r="B49" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="10"/>
@@ -2072,7 +2544,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
-      <c r="R49" s="33" t="s">
+      <c r="R49" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S49" s="8"/>
@@ -2089,8 +2561,10 @@
       <c r="AD49" s="8"/>
       <c r="AE49" s="10"/>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
+    <row r="50" spans="2:31" ht="17.250000">
+      <c r="B50" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
@@ -2099,8 +2573,8 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -2114,162 +2588,219 @@
       <c r="W50" s="13"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="Z50" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="14"/>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="AC50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE50" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31">
+      <c r="B53" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="30"/>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="B54" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="55" spans="2:31">
+      <c r="B55" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="24" t="s">
+    <row r="56" spans="2:31">
+      <c r="B56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>1.2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+    <row r="57" spans="2:31">
+      <c r="B57" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31">
+      <c r="B58" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E58" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F58" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
+    <row r="59" spans="2:31">
+      <c r="B59" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E59" s="23">
         <v>2.1</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F59" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B59" s="28" t="s">
+    <row r="60" spans="2:31">
+      <c r="B60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F59" s="28" t="s">
+      <c r="E60" s="23">
+        <v>2.2</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="28" t="s">
+    <row r="61" spans="2:31">
+      <c r="B61" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F60" s="28" t="s">
+      <c r="E61" s="23">
+        <v>2.3</v>
+      </c>
+      <c r="F61" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
+    <row r="62" spans="2:31">
+      <c r="B62" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E62" s="23">
         <v>2.4</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F62" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
+    <row r="63" spans="2:31">
+      <c r="B63" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31">
+      <c r="B64" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F44:H44"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PM문서.xlsx
+++ b/PM문서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2102\NGP\TermProject\AirHockey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABD57D-3675-47FF-8FB0-B472D4B5024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A72B3-FD96-457C-9BEC-8751F45791E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="20610" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>2021학년도 2학기 네트워크 게임 프로그래밍 PM 문서</t>
   </si>
@@ -278,6 +278,62 @@
   </si>
   <si>
     <t>스레드 함수 구조 재변경(클라당 스레드2개), 새 구조에 맞춘 이벤트 처리 방식 소폭 변경, 소켓 포인터 구조체 폐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.12.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 관련 데이터 라켓 가속도만 받도록 변경, 골 정보 대신 스코어 정보 전송하도록 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌, 스코어 관련 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 분기수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코어 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 점수표, 좌표 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 타이머 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 라켓이미지 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 라켓 가속도 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라 점수표 출력 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골 조건 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라2 공 위치 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 속도 가중치 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -968,26 +1030,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE62"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="Y4" s="24"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,11 +1128,22 @@
       <c r="AD5" s="4">
         <v>6</v>
       </c>
-      <c r="AE5" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1097,20 +1177,25 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="7"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1133,9 +1218,14 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="10"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1169,9 +1259,14 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="10"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="10"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1183,10 +1278,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1205,9 +1300,14 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="10"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="10"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1241,13 +1341,18 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="10"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1277,9 +1382,14 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1313,9 +1423,14 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="10"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="10"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>65</v>
       </c>
@@ -1351,9 +1466,14 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="10"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="10"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
@@ -1389,9 +1509,14 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="10"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="10"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>63</v>
       </c>
@@ -1427,9 +1552,14 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="10"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="10"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>66</v>
       </c>
@@ -1463,9 +1593,14 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="10"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="10"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>67</v>
       </c>
@@ -1499,9 +1634,14 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="10"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="10"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>71</v>
       </c>
@@ -1539,773 +1679,1243 @@
       <c r="AD18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AE18" s="10"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="14"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="10"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="10"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="10"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="10"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="10"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="10"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="10"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="10"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="10"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="10"/>
+    </row>
+    <row r="28" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E24">
+      <c r="E33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E25">
+      <c r="E34">
         <v>1.2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E26">
+      <c r="E35">
         <v>1.3</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F35" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E27">
+      <c r="E36">
         <v>1.4</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E28">
+      <c r="E37">
         <v>1.4</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F37" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E29">
+      <c r="E38">
         <v>1.5</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E39">
         <v>1.5</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
+      <c r="E40">
         <v>1.5</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F40" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E41" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F41" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E33">
+      <c r="E42">
         <v>2.1</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E34">
+      <c r="E43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F43" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E35">
+      <c r="E44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F44" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D45" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E45" s="24">
         <v>2.4</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F45" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F46" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="D50" s="24"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="54" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="55" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1">
+      <c r="C55" s="2"/>
+      <c r="D55" s="1">
         <v>2</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3">
+      <c r="E55" s="2"/>
+      <c r="F55" s="3">
         <v>6</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G55" s="1">
         <v>7</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H55" s="4">
         <v>8</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3">
+      <c r="I55" s="2"/>
+      <c r="J55" s="3">
         <v>13</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K55" s="1">
         <v>14</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L55" s="4">
         <v>15</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M55" s="2">
         <v>16</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N55" s="3">
         <v>20</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O55" s="1">
         <v>21</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P55" s="4">
         <v>22</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2">
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
         <v>2</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="3">
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="3">
         <v>27</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V55" s="1">
         <v>28</v>
       </c>
-      <c r="W42" s="4">
+      <c r="W55" s="4">
         <v>29</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC42" s="1">
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="1">
         <v>5</v>
       </c>
-      <c r="AD42" s="4">
+      <c r="AD55" s="4">
         <v>6</v>
       </c>
-      <c r="AE42" s="4">
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+    <row r="56" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="7"/>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="17" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+      <c r="AH56" s="32"/>
+      <c r="AI56" s="32"/>
+      <c r="AJ56" s="7"/>
+    </row>
+    <row r="57" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="39" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="16" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="10"/>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="10"/>
+    </row>
+    <row r="58" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="10"/>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
+      <c r="L58" s="21"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="10"/>
+    </row>
+    <row r="59" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="10"/>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="10"/>
+    </row>
+    <row r="60" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="16" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="10"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="10"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="16" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="10"/>
-    </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B49" s="25" t="s">
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="10"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B62" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="10"/>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="14"/>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="10"/>
+    </row>
+    <row r="63" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="14"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D66" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E66" t="s">
         <v>19</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F66" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G66" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="30"/>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E67" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D68" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E55">
+      <c r="E68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E56">
+      <c r="E69">
         <v>1.2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E70" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F70" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E71" s="28">
         <v>2.1</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F71" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B59" s="28" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E72" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F72" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="28" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28" t="s">
+      <c r="C73" s="28"/>
+      <c r="D73" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E73" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F73" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28" t="s">
+      <c r="C74" s="28"/>
+      <c r="D74" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E74" s="28">
         <v>2.4</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F74" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F57:H57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
